--- a/Semester 1/Mechanica, optica en moderne fysica/Labo_s_en_oefeningenzittingen/regressie.xlsx
+++ b/Semester 1/Mechanica, optica en moderne fysica/Labo_s_en_oefeningenzittingen/regressie.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Schakelprogramma\Semester 1\Mechanica, optica en moderne fysica\Labo_s_en_oefeningenzittingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Kleur</t>
   </si>
@@ -119,6 +119,33 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>n (+0.0003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A = </t>
+  </si>
+  <si>
+    <t>B =</t>
+  </si>
+  <si>
+    <t>46°</t>
+  </si>
+  <si>
+    <t>45°25'</t>
+  </si>
+  <si>
+    <t>44°21’</t>
+  </si>
+  <si>
+    <t>44°11’</t>
+  </si>
+  <si>
+    <t>43°49’</t>
+  </si>
+  <si>
+    <t>43°19’</t>
   </si>
 </sst>
 </file>
@@ -295,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,22 +345,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,26 +475,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -485,44 +489,21 @@
             <c:v>Brekingsindex</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$E$8:$E$13</c:f>
+              <c:f>Blad1!$M$8:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -549,27 +530,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$8:$D$13</c:f>
+              <c:f>Blad1!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9904999999999999</c:v>
+                  <c:v>1.5995499442500098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9892000000000001</c:v>
+                  <c:v>1.5933747843520059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9867999999999999</c:v>
+                  <c:v>1.5819763973170278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9863999999999999</c:v>
+                  <c:v>1.5801829920873214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9855</c:v>
+                  <c:v>1.5762257395718429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9843</c:v>
+                  <c:v>1.5708034862070723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,7 +558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-110A-4F77-8728-5812D121D710}"/>
+              <c16:uniqueId val="{00000001-19D3-49A1-9675-8DF634CD16C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -763,37 +744,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="0070C0"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -892,23 +842,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="0070C0"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -951,13 +884,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -992,6 +918,763 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1064085739282591E-2"/>
+                  <c:y val="-0.45008431546692634"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$M$8:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2410269281795689E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8923133879402102E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9681909810955383E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1311388723643331E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5077330159889288E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0047795644840826E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$L$8:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5995499442500098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5933747843520059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5819763973170278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5801829920873214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5762257395718429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5708034862070723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BBD8-444F-B1A5-A1333FB14071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="525012768"/>
+        <c:axId val="525014080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="525012768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525014080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525014080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525012768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$8:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8480752405949255E-2"/>
+                  <c:y val="-0.36608304170312045"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2410269281795689E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8923133879402102E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9681909810955383E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1311388723643331E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5077330159889288E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0047795644840826E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$E$8:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9904611121457332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.989206166007139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9867781234757917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9863831859298404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9854995335071903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9842617937991263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DB3-4B9C-9F4D-01948EF743EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="525813416"/>
+        <c:axId val="525813744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="525813416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525813744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525813744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525813416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1067,6 +1750,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1583,20 +2306,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>407276</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4598</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>272806</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>118242</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>172763</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1160390</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1616,6 +2855,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330572</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1192A9-F344-42C1-8CF8-036495A19314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A28EF1-99FD-4ED5-9CA2-FC54F37EB105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1921,19 +3232,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468712FB-A7D5-4145-B459-D605A0FB607A}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +3253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1957,9 +3269,9 @@
         <v>1.0442886691099404</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1968,25 +3280,61 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="H6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1996,15 +3344,41 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10">
-        <v>1.9904999999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <f>1/(B8*B8)</f>
+      <c r="D8" s="5">
+        <f>134*PI()/180</f>
+        <v>2.3387411976724013</v>
+      </c>
+      <c r="E8" s="8">
+        <f>SIN(($D$3+D8)/2)/(SIN($D$3/2))</f>
+        <v>1.9904611121457332</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F13" si="0">1/(B8*B8)</f>
         <v>2.2410269281795689E-6</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>668</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="5">
+        <f>46*PI()/180</f>
+        <v>0.80285145591739149</v>
+      </c>
+      <c r="L8" s="8">
+        <f>SIN(($D$3+K8)/2)/(SIN($D$3/2))</f>
+        <v>1.5995499442500098</v>
+      </c>
+      <c r="M8" s="5">
+        <f>1/(I8*I8)</f>
+        <v>2.2410269281795689E-6</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2014,15 +3388,41 @@
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
-        <v>1.9892000000000001</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ref="E9:E13" si="0">1/(B9*B9)</f>
+      <c r="D9" s="5">
+        <f>(134 + 35/60)*PI()/180</f>
+        <v>2.3489222849757021</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="E9:E13" si="1">SIN(($D$3+D9)/2)/(SIN($D$3/2))</f>
+        <v>1.989206166007139</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>2.8923133879402102E-6</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>588</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="5">
+        <f>(45 + 25/60)*PI()/180</f>
+        <v>0.79267036861409124</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9:L13" si="2">SIN(($D$3+K9)/2)/(SIN($D$3/2))</f>
+        <v>1.5933747843520059</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ref="M9:M13" si="3">1/(I9*I9)</f>
+        <v>2.8923133879402102E-6</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2032,15 +3432,41 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10">
-        <v>1.9867999999999999</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5">
+        <f>(135 + 39/60)*PI()/180</f>
+        <v>2.3675391303303082</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9867781234757917</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>3.9681909810955383E-6</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="5">
+        <v>502</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5">
+        <f>(44 + 21/60)*PI()/180</f>
+        <v>0.77405352325948518</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5819763973170278</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>3.9681909810955383E-6</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2050,15 +3476,41 @@
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
-        <v>1.9863999999999999</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="5">
+        <f>(135 + 49/60)*PI()/180</f>
+        <v>2.3704480124169649</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9863831859298404</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>4.1311388723643331E-6</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>492</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="5">
+        <f>(44 + 11/60)*PI()/180</f>
+        <v>0.77114464117282777</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5801829920873214</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1311388723643331E-6</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2068,15 +3520,41 @@
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10">
-        <v>1.9855</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="5">
+        <f>(136 + 11/60)*PI()/180</f>
+        <v>2.3768475530076114</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9854995335071903</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>4.5077330159889288E-6</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5">
+        <v>471</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5">
+        <f>(43 + 49/60)*PI()/180</f>
+        <v>0.76474510058218215</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5762257395718429</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="3"/>
+        <v>4.5077330159889288E-6</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2086,19 +3564,64 @@
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11">
-        <v>1.9843</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
+        <f>(136 + 41/60)*PI()/180</f>
+        <v>2.385574199267583</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9842617937991263</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>5.0047795644840826E-6</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>447</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="5">
+        <f>(43 + 19/60)*PI()/180</f>
+        <v>0.75601845432221049</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5708034862070723</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0047795644840826E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>1.6087</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>958</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
